--- a/TaskAutomation/Data/Initializator.xlsx
+++ b/TaskAutomation/Data/Initializator.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016C0F2-89C2-4CD2-AD9A-5277D3E9BBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59980DE1-D110-4AD8-BCBF-E9D32B2CB303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12180" yWindow="2415" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="5" r:id="rId1"/>
     <sheet name="Стадии" sheetId="6" r:id="rId2"/>
     <sheet name="Режимы" sheetId="1" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId6"/>
+    <sheet name="Заказчики" sheetId="7" r:id="rId4"/>
+    <sheet name="Типы КО" sheetId="8" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId7"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист4!$A$1:$W$1271</definedName>
-    <definedName name="OLE_LINK1" localSheetId="5">Лист4!$E$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Лист4!$A$1:$W$1271</definedName>
+    <definedName name="OLE_LINK1" localSheetId="7">Лист4!$E$280</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="935">
   <si>
     <t>ПД</t>
   </si>
@@ -2827,6 +2829,45 @@
   <si>
     <t>ПиР</t>
   </si>
+  <si>
+    <t>РН-Юганскнефтегаз</t>
+  </si>
+  <si>
+    <t>Севкомнефтегаз</t>
+  </si>
+  <si>
+    <t>Харампурнефтегаз</t>
+  </si>
+  <si>
+    <t>РН-Ванкор</t>
+  </si>
+  <si>
+    <t>Восток Ойл</t>
+  </si>
+  <si>
+    <t>Сибнефтегаз</t>
+  </si>
+  <si>
+    <t>Кынско-Часельское нефтегаз</t>
+  </si>
+  <si>
+    <t>Роспан Интернешнл</t>
+  </si>
+  <si>
+    <t>Кустовая площадка</t>
+  </si>
+  <si>
+    <t>ДНС с УПСВ</t>
+  </si>
+  <si>
+    <t>УПН</t>
+  </si>
+  <si>
+    <t>ЦПС</t>
+  </si>
+  <si>
+    <t>УППВ</t>
+  </si>
 </sst>
 </file>
 
@@ -3504,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3544,6 +3585,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFF031B-D0DF-4115-B955-B6C39F305104}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07434EE-B709-41F7-A34B-C4F797FD3A4D}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3761,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
@@ -4983,7 +5152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X1271"/>
   <sheetViews>

--- a/TaskAutomation/Data/Initializator.xlsx
+++ b/TaskAutomation/Data/Initializator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59980DE1-D110-4AD8-BCBF-E9D32B2CB303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76068570-C912-4277-B1E7-B7EE39EE4A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12180" yWindow="2415" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="941">
   <si>
     <t>ПД</t>
   </si>
@@ -2868,6 +2868,24 @@
   <si>
     <t>УППВ</t>
   </si>
+  <si>
+    <t>ВЧНГ</t>
+  </si>
+  <si>
+    <t>ВСНК</t>
+  </si>
+  <si>
+    <t>РН-Пурнефтегаз</t>
+  </si>
+  <si>
+    <t>Славнефть</t>
+  </si>
+  <si>
+    <t>ДНС</t>
+  </si>
+  <si>
+    <t>УПСВ</t>
+  </si>
 </sst>
 </file>
 
@@ -3447,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C91471-FC67-4498-8E95-3F2A0880B52E}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,7 +3510,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3564,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,10 +3604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFF031B-D0DF-4115-B955-B6C39F305104}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,6 +3665,26 @@
         <v>929</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3655,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07434EE-B709-41F7-A34B-C4F797FD3A4D}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,16 +3731,26 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>934</v>
       </c>
     </row>
